--- a/Quadrat_Sampling/quad_data_raw_blank.xlsx
+++ b/Quadrat_Sampling/quad_data_raw_blank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TL_Astrangia/Quadrat_Sampling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BB7DA6-FE17-AF47-A4A4-CCCD5E54A649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3636392-34E4-0A49-AEAD-8BAA21A7A936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="500" windowWidth="16540" windowHeight="14180" xr2:uid="{BBC21BE2-975E-D544-A42A-22D382A96D0D}"/>
+    <workbookView xWindow="13360" yWindow="500" windowWidth="13140" windowHeight="14180" xr2:uid="{BBC21BE2-975E-D544-A42A-22D382A96D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>quadrat_number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>exact_depth</t>
   </si>
@@ -87,6 +84,12 @@
   </si>
   <si>
     <t>algae</t>
+  </si>
+  <si>
+    <t>XZ</t>
+  </si>
+  <si>
+    <t>LOGGERS</t>
   </si>
 </sst>
 </file>
@@ -160,26 +163,26 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -495,512 +498,546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB692AF-EE7E-7648-9CF6-79A9C51675F0}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="71" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="71" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="O1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>0.36736111111111108</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="C2" s="6">
+        <v>27</v>
+      </c>
+      <c r="D2" s="7">
+        <v>45198</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>13</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>80</v>
+      </c>
+      <c r="J2" s="8" t="str">
+        <f>IF(OR(ABS(G2-E2)&gt;5, ABS(F2-H2) &gt;5),"bad","good")</f>
+        <v>bad</v>
+      </c>
+      <c r="K2" s="8">
+        <f>AVERAGE(E2,G2)</f>
+        <v>8.5</v>
+      </c>
+      <c r="L2" s="8">
+        <f>AVERAGE(F2,H2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M2" s="9">
+        <v>4.3</v>
+      </c>
+      <c r="N2" s="10">
+        <f>C2-M2</f>
+        <v>22.7</v>
+      </c>
+      <c r="O2" s="11">
+        <v>16.515000000000001</v>
+      </c>
+      <c r="P2" s="11">
+        <v>17.771470000000001</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="C3" s="6">
+        <v>26</v>
+      </c>
+      <c r="D3" s="7">
+        <v>45198</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>4</v>
+      </c>
+      <c r="I3" s="6">
+        <v>90</v>
+      </c>
+      <c r="J3" s="8" t="str">
+        <f t="shared" ref="J3:J8" si="0">IF(OR(ABS(G3-E3)&gt;5, ABS(F3-H3) &gt;5),"bad","good")</f>
+        <v>good</v>
+      </c>
+      <c r="K3" s="8">
+        <f t="shared" ref="K3:K8" si="1">AVERAGE(E3,G3)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="8">
+        <f t="shared" ref="L3:L8" si="2">AVERAGE(F3,H3)</f>
+        <v>5.5</v>
+      </c>
+      <c r="M3" s="9">
+        <v>4.3</v>
+      </c>
+      <c r="N3" s="10">
+        <f t="shared" ref="N3:N8" si="3">C3-M3</f>
+        <v>21.7</v>
+      </c>
+      <c r="O3" s="11">
+        <v>19.573080000000001</v>
+      </c>
+      <c r="P3" s="11">
+        <v>17.826149999999998</v>
+      </c>
+      <c r="Q3" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>16</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="K2" s="4" t="str">
-        <f>IF(OR(ABS(H2-F2)&gt;5, ABS(G2-I2) &gt;5),"bad","good")</f>
-        <v>good</v>
-      </c>
-      <c r="L2" s="4" t="e">
-        <f>AVERAGE(F2,H2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" s="4" t="e">
-        <f>AVERAGE(G2,I2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O2" s="7">
-        <f>D2-N2</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="10">
-        <v>370.12</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>20.67033</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="K3" s="4" t="str">
-        <f t="shared" ref="K3:K15" si="0">IF(OR(ABS(H3-F3)&gt;5, ABS(G3-I3) &gt;5),"bad","good")</f>
-        <v>good</v>
-      </c>
-      <c r="L3" s="4" t="e">
-        <f t="shared" ref="L3:L15" si="1">AVERAGE(F3,H3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M3" s="4" t="e">
-        <f t="shared" ref="M3:M15" si="2">AVERAGE(G3,I3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O3" s="7">
-        <f t="shared" ref="O3:O15" si="3">D3-N3</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="10">
-        <v>405.9751</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>20.401109999999999</v>
-      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>18</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="K4" s="4" t="str">
+      <c r="A4" s="5">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="C4" s="6">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7">
+        <v>45198</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>100</v>
+      </c>
+      <c r="J4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>good</v>
       </c>
-      <c r="L4" s="4" t="e">
+      <c r="K4" s="8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="4" t="e">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="N4" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="10">
-        <v>379.58929999999998</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>20.378329999999998</v>
+        <v>21.8</v>
+      </c>
+      <c r="O4" s="11">
+        <v>49.782499999999999</v>
+      </c>
+      <c r="P4" s="11">
+        <v>17.853750000000002</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>19</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="K5" s="4" t="str">
+      <c r="A5" s="5">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="C5" s="6">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45198</v>
+      </c>
+      <c r="E5" s="6">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6">
+        <v>55</v>
+      </c>
+      <c r="G5" s="6">
+        <v>9</v>
+      </c>
+      <c r="H5" s="6">
+        <v>60</v>
+      </c>
+      <c r="I5" s="6">
+        <v>5</v>
+      </c>
+      <c r="J5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>good</v>
       </c>
-      <c r="L5" s="4" t="e">
+      <c r="K5" s="8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="4" t="e">
+        <v>9</v>
+      </c>
+      <c r="L5" s="8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O5" s="7">
+        <v>57.5</v>
+      </c>
+      <c r="M5" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="N5" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="10">
-        <v>650.91999999999996</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>20.366250000000001</v>
+        <v>22.8</v>
+      </c>
+      <c r="O5" s="11">
+        <v>61.89481</v>
+      </c>
+      <c r="P5" s="11">
+        <v>17.862590000000001</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>20</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="E6" s="5"/>
-      <c r="K6" s="4" t="str">
+      <c r="A6" s="5">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="C6" s="6">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7">
+        <v>45198</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>47</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6">
+        <v>42</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>good</v>
       </c>
-      <c r="L6" s="4" t="e">
+      <c r="K6" s="8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="4" t="e">
+        <v>3.5</v>
+      </c>
+      <c r="L6" s="8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O6" s="7">
+        <v>44.5</v>
+      </c>
+      <c r="M6" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N6" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="10">
-        <v>1254.7729999999999</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>20.377780000000001</v>
+        <v>22.9</v>
+      </c>
+      <c r="O6" s="11">
+        <v>71.52</v>
+      </c>
+      <c r="P6" s="11">
+        <v>17.861000000000001</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>21</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="K7" s="4" t="str">
+      <c r="A7" s="5">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="C7" s="6">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7">
+        <v>45198</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>9</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>8</v>
+      </c>
+      <c r="I7" s="6">
+        <v>85</v>
+      </c>
+      <c r="J7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>good</v>
       </c>
-      <c r="L7" s="4" t="e">
+      <c r="K7" s="8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="4" t="e">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O7" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="M7" s="9">
+        <v>4</v>
+      </c>
+      <c r="N7" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="10">
-        <v>2053.44</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>20.401250000000001</v>
+        <v>20</v>
+      </c>
+      <c r="O7" s="11">
+        <v>56.982590000000002</v>
+      </c>
+      <c r="P7" s="11">
+        <v>17.858889999999999</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>22</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="K8" s="4" t="str">
+      <c r="A8" s="5">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="C8" s="6">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7">
+        <v>45198</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>10</v>
+      </c>
+      <c r="I8" s="6">
+        <v>100</v>
+      </c>
+      <c r="J8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>good</v>
       </c>
-      <c r="L8" s="4" t="e">
+      <c r="K8" s="8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="4" t="e">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" s="7">
+        <v>10</v>
+      </c>
+      <c r="M8" s="9">
+        <v>3.9</v>
+      </c>
+      <c r="N8" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="10">
-        <v>2618.6089999999999</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>20.432310000000001</v>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="O8" s="11">
+        <v>138.07560000000001</v>
+      </c>
+      <c r="P8" s="11">
+        <v>17.864809999999999</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>23</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="K9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>good</v>
-      </c>
-      <c r="L9" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O9" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="10">
-        <v>2479.17</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>20.426559999999998</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="7"/>
+      <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>24</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="K10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>good</v>
-      </c>
-      <c r="L10" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <v>1855.0250000000001</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>20.479089999999999</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="7"/>
+      <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>25</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="K11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>good</v>
-      </c>
-      <c r="L11" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O11" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="10">
-        <v>1888.0909999999999</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>20.471430000000002</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="7"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>26</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="K12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>good</v>
-      </c>
-      <c r="L12" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="10">
-        <v>2365.9279999999999</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>20.462109999999999</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="7"/>
+      <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>27</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="K13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>good</v>
-      </c>
-      <c r="L13" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="10">
-        <v>1522.453</v>
-      </c>
-      <c r="Q13" s="10">
-        <v>20.473330000000001</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="7"/>
+      <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>28</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="K14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>good</v>
-      </c>
-      <c r="L14" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O14" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
-        <v>1346.98</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>20.449580000000001</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="7"/>
+      <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>29</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="K15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>good</v>
-      </c>
-      <c r="L15" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O15" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <v>2710.4070000000002</v>
-      </c>
-      <c r="Q15" s="10">
-        <v>20.453330000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S19" s="11"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="7"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="7"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="D17" s="7"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R19" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N1" r:id="rId1" xr:uid="{1FAF53E5-A1FC-B747-BCD4-774ABEE98715}"/>
+    <hyperlink ref="M1" r:id="rId1" xr:uid="{1FAF53E5-A1FC-B747-BCD4-774ABEE98715}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Quadrat_Sampling/quad_data_raw_blank.xlsx
+++ b/Quadrat_Sampling/quad_data_raw_blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TL_Astrangia/Quadrat_Sampling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3636392-34E4-0A49-AEAD-8BAA21A7A936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6DC2CA-C8DF-7046-8A03-1AB74E5E2BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13360" yWindow="500" windowWidth="13140" windowHeight="14180" xr2:uid="{BBC21BE2-975E-D544-A42A-22D382A96D0D}"/>
+    <workbookView xWindow="3040" yWindow="500" windowWidth="22240" windowHeight="14180" xr2:uid="{BBC21BE2-975E-D544-A42A-22D382A96D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>exact_depth</t>
   </si>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB692AF-EE7E-7648-9CF6-79A9C51675F0}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,56 +581,56 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>0.36736111111111108</v>
+        <v>0.38125000000000003</v>
       </c>
       <c r="B2" s="5">
-        <v>0.36944444444444446</v>
+        <v>0.3840277777777778</v>
       </c>
       <c r="C2" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="7">
-        <v>45198</v>
+        <v>45202</v>
       </c>
       <c r="E2" s="6">
         <v>4</v>
       </c>
       <c r="F2" s="6">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="G2" s="6">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H2" s="6">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I2" s="6">
         <v>80</v>
       </c>
       <c r="J2" s="8" t="str">
         <f>IF(OR(ABS(G2-E2)&gt;5, ABS(F2-H2) &gt;5),"bad","good")</f>
-        <v>bad</v>
+        <v>good</v>
       </c>
       <c r="K2" s="8">
         <f>AVERAGE(E2,G2)</f>
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="L2" s="8">
         <f>AVERAGE(F2,H2)</f>
-        <v>0.5</v>
+        <v>52.5</v>
       </c>
       <c r="M2" s="9">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="N2" s="10">
         <f>C2-M2</f>
-        <v>22.7</v>
+        <v>25.1</v>
       </c>
       <c r="O2" s="11">
-        <v>16.515000000000001</v>
+        <v>425.32889999999998</v>
       </c>
       <c r="P2" s="11">
-        <v>17.771470000000001</v>
+        <v>17.79222</v>
       </c>
       <c r="Q2" t="s">
         <v>16</v>
@@ -638,31 +638,31 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>0.37013888888888885</v>
+        <v>0.3840277777777778</v>
       </c>
       <c r="B3" s="5">
-        <v>0.37083333333333335</v>
+        <v>0.38819444444444445</v>
       </c>
       <c r="C3" s="6">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7">
-        <v>45198</v>
+        <v>45202</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="6">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G3" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" s="6">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="I3" s="6">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J3" s="8" t="str">
         <f t="shared" ref="J3:J8" si="0">IF(OR(ABS(G3-E3)&gt;5, ABS(F3-H3) &gt;5),"bad","good")</f>
@@ -670,24 +670,24 @@
       </c>
       <c r="K3" s="8">
         <f t="shared" ref="K3:K8" si="1">AVERAGE(E3,G3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3" s="8">
         <f t="shared" ref="L3:L8" si="2">AVERAGE(F3,H3)</f>
-        <v>5.5</v>
+        <v>30.5</v>
       </c>
       <c r="M3" s="9">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="N3" s="10">
         <f t="shared" ref="N3:N8" si="3">C3-M3</f>
-        <v>21.7</v>
+        <v>20</v>
       </c>
       <c r="O3" s="11">
-        <v>19.573080000000001</v>
+        <v>879.72569999999996</v>
       </c>
       <c r="P3" s="11">
-        <v>17.826149999999998</v>
+        <v>17.808389999999999</v>
       </c>
       <c r="Q3" t="s">
         <v>16</v>
@@ -695,31 +695,31 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>0.3756944444444445</v>
+        <v>0.38958333333333334</v>
       </c>
       <c r="B4" s="5">
-        <v>0.37708333333333338</v>
+        <v>0.39374999999999999</v>
       </c>
       <c r="C4" s="6">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>45198</v>
+        <v>45202</v>
       </c>
       <c r="E4" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4" s="6">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G4" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I4" s="6">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J4" s="8" t="str">
         <f t="shared" si="0"/>
@@ -727,24 +727,24 @@
       </c>
       <c r="K4" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="M4" s="9">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N4" s="10">
         <f t="shared" si="3"/>
-        <v>21.8</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="O4" s="11">
-        <v>49.782499999999999</v>
+        <v>1301.875</v>
       </c>
       <c r="P4" s="11">
-        <v>17.853750000000002</v>
+        <v>17.809629999999999</v>
       </c>
       <c r="Q4" t="s">
         <v>16</v>
@@ -752,31 +752,31 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>0.37777777777777777</v>
+        <v>0.39444444444444443</v>
       </c>
       <c r="B5" s="5">
-        <v>0.38125000000000003</v>
+        <v>0.3979166666666667</v>
       </c>
       <c r="C5" s="6">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7">
-        <v>45198</v>
+        <v>45202</v>
       </c>
       <c r="E5" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F5" s="6">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="G5" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H5" s="6">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="I5" s="6">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="J5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -784,199 +784,46 @@
       </c>
       <c r="K5" s="8">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" si="2"/>
-        <v>57.5</v>
+        <v>12</v>
       </c>
       <c r="M5" s="9">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" si="3"/>
-        <v>22.8</v>
+        <v>15.8</v>
       </c>
       <c r="O5" s="11">
-        <v>61.89481</v>
+        <v>1695.5450000000001</v>
       </c>
       <c r="P5" s="11">
-        <v>17.862590000000001</v>
+        <v>17.821149999999999</v>
       </c>
       <c r="Q5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>0.38125000000000003</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.3840277777777778</v>
-      </c>
-      <c r="C6" s="6">
-        <v>27</v>
-      </c>
-      <c r="D6" s="7">
-        <v>45198</v>
-      </c>
-      <c r="E6" s="6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6">
-        <v>47</v>
-      </c>
-      <c r="G6" s="6">
-        <v>5</v>
-      </c>
-      <c r="H6" s="6">
-        <v>42</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>good</v>
-      </c>
-      <c r="K6" s="8">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="L6" s="8">
-        <f t="shared" si="2"/>
-        <v>44.5</v>
-      </c>
-      <c r="M6" s="9">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="N6" s="10">
-        <f t="shared" si="3"/>
-        <v>22.9</v>
-      </c>
-      <c r="O6" s="11">
-        <v>71.52</v>
-      </c>
-      <c r="P6" s="11">
-        <v>17.861000000000001</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>16</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="D6" s="7"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0.38750000000000001</v>
-      </c>
-      <c r="C7" s="6">
-        <v>24</v>
-      </c>
-      <c r="D7" s="7">
-        <v>45198</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>9</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>8</v>
-      </c>
-      <c r="I7" s="6">
-        <v>85</v>
-      </c>
-      <c r="J7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>good</v>
-      </c>
-      <c r="K7" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <f t="shared" si="2"/>
-        <v>8.5</v>
-      </c>
-      <c r="M7" s="9">
-        <v>4</v>
-      </c>
-      <c r="N7" s="10">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="O7" s="11">
-        <v>56.982590000000002</v>
-      </c>
-      <c r="P7" s="11">
-        <v>17.858889999999999</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>16</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="D7" s="7"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>0.38819444444444445</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0.39097222222222222</v>
-      </c>
-      <c r="C8" s="6">
-        <v>23</v>
-      </c>
-      <c r="D8" s="7">
-        <v>45198</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>10</v>
-      </c>
-      <c r="I8" s="6">
-        <v>100</v>
-      </c>
-      <c r="J8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>good</v>
-      </c>
-      <c r="K8" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="M8" s="9">
-        <v>3.9</v>
-      </c>
-      <c r="N8" s="10">
-        <f t="shared" si="3"/>
-        <v>19.100000000000001</v>
-      </c>
-      <c r="O8" s="11">
-        <v>138.07560000000001</v>
-      </c>
-      <c r="P8" s="11">
-        <v>17.864809999999999</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>16</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="7"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>

--- a/Quadrat_Sampling/quad_data_raw_blank.xlsx
+++ b/Quadrat_Sampling/quad_data_raw_blank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TL_Astrangia/Quadrat_Sampling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6DC2CA-C8DF-7046-8A03-1AB74E5E2BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4470467B-1B43-D248-A35A-0B0A1AEE1D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="500" windowWidth="22240" windowHeight="14180" xr2:uid="{BBC21BE2-975E-D544-A42A-22D382A96D0D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="13020" windowHeight="14180" xr2:uid="{BBC21BE2-975E-D544-A42A-22D382A96D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>exact_depth</t>
   </si>
@@ -96,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,6 +107,21 @@
     <font>
       <u/>
       <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -163,26 +178,26 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -498,35 +513,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB692AF-EE7E-7648-9CF6-79A9C51675F0}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="71" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -575,312 +589,351 @@
       <c r="P1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>0.38125000000000003</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.3840277777777778</v>
-      </c>
-      <c r="C2" s="6">
-        <v>28</v>
-      </c>
-      <c r="D2" s="7">
-        <v>45202</v>
-      </c>
-      <c r="E2" s="6">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6">
-        <v>52</v>
-      </c>
-      <c r="G2" s="6">
-        <v>4</v>
-      </c>
-      <c r="H2" s="6">
-        <v>53</v>
-      </c>
-      <c r="I2" s="6">
-        <v>80</v>
-      </c>
-      <c r="J2" s="8" t="str">
+      <c r="A2" s="6">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="C2" s="7">
+        <v>40</v>
+      </c>
+      <c r="D2" s="8">
+        <v>45243</v>
+      </c>
+      <c r="E2" s="7">
+        <v>17</v>
+      </c>
+      <c r="F2" s="7">
+        <v>65</v>
+      </c>
+      <c r="G2" s="7">
+        <v>16</v>
+      </c>
+      <c r="H2" s="7">
+        <v>70</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9" t="str">
         <f>IF(OR(ABS(G2-E2)&gt;5, ABS(F2-H2) &gt;5),"bad","good")</f>
         <v>good</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="9">
         <f>AVERAGE(E2,G2)</f>
-        <v>4</v>
-      </c>
-      <c r="L2" s="8">
+        <v>16.5</v>
+      </c>
+      <c r="L2" s="9">
         <f>AVERAGE(F2,H2)</f>
-        <v>52.5</v>
-      </c>
-      <c r="M2" s="9">
-        <v>2.9</v>
-      </c>
-      <c r="N2" s="10">
+        <v>67.5</v>
+      </c>
+      <c r="M2" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="N2" s="11">
         <f>C2-M2</f>
-        <v>25.1</v>
-      </c>
-      <c r="O2" s="11">
-        <v>425.32889999999998</v>
-      </c>
-      <c r="P2" s="11">
-        <v>17.79222</v>
-      </c>
-      <c r="Q2" t="s">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="O2" s="12">
+        <v>572.28290000000004</v>
+      </c>
+      <c r="P2" s="12">
+        <v>13.87018</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>0.3840277777777778</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.38819444444444445</v>
-      </c>
-      <c r="C3" s="6">
-        <v>23</v>
-      </c>
-      <c r="D3" s="7">
-        <v>45202</v>
-      </c>
-      <c r="E3" s="6">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6">
-        <v>32</v>
-      </c>
-      <c r="G3" s="6">
-        <v>4</v>
-      </c>
-      <c r="H3" s="6">
-        <v>29</v>
-      </c>
-      <c r="I3" s="6">
-        <v>85</v>
-      </c>
-      <c r="J3" s="8" t="str">
-        <f t="shared" ref="J3:J8" si="0">IF(OR(ABS(G3-E3)&gt;5, ABS(F3-H3) &gt;5),"bad","good")</f>
+      <c r="A3" s="6">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="C3" s="7">
+        <v>39</v>
+      </c>
+      <c r="D3" s="8">
+        <v>45243</v>
+      </c>
+      <c r="E3" s="7">
+        <v>39</v>
+      </c>
+      <c r="F3" s="7">
+        <v>48</v>
+      </c>
+      <c r="G3" s="7">
+        <v>39</v>
+      </c>
+      <c r="H3" s="7">
+        <v>52</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="str">
+        <f t="shared" ref="J3:J6" si="0">IF(OR(ABS(G3-E3)&gt;5, ABS(F3-H3) &gt;5),"bad","good")</f>
         <v>good</v>
       </c>
-      <c r="K3" s="8">
-        <f t="shared" ref="K3:K8" si="1">AVERAGE(E3,G3)</f>
-        <v>3</v>
-      </c>
-      <c r="L3" s="8">
-        <f t="shared" ref="L3:L8" si="2">AVERAGE(F3,H3)</f>
-        <v>30.5</v>
-      </c>
-      <c r="M3" s="9">
-        <v>3</v>
-      </c>
-      <c r="N3" s="10">
-        <f t="shared" ref="N3:N8" si="3">C3-M3</f>
-        <v>20</v>
-      </c>
-      <c r="O3" s="11">
-        <v>879.72569999999996</v>
-      </c>
-      <c r="P3" s="11">
-        <v>17.808389999999999</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="K3" s="9">
+        <f t="shared" ref="K3:K6" si="1">AVERAGE(E3,G3)</f>
+        <v>39</v>
+      </c>
+      <c r="L3" s="9">
+        <f t="shared" ref="L3:L6" si="2">AVERAGE(F3,H3)</f>
+        <v>50</v>
+      </c>
+      <c r="M3" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="N3" s="11">
+        <f t="shared" ref="N3:N6" si="3">C3-M3</f>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="O3" s="12">
+        <v>579.08219999999994</v>
+      </c>
+      <c r="P3" s="12">
+        <v>13.90056</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>0.38958333333333334</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.39374999999999999</v>
-      </c>
-      <c r="C4" s="6">
-        <v>23</v>
-      </c>
-      <c r="D4" s="7">
-        <v>45202</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4</v>
-      </c>
-      <c r="F4" s="6">
-        <v>17</v>
-      </c>
-      <c r="G4" s="6">
-        <v>3</v>
-      </c>
-      <c r="H4" s="6">
-        <v>16</v>
-      </c>
-      <c r="I4" s="6">
-        <v>90</v>
-      </c>
-      <c r="J4" s="8" t="str">
+      <c r="A4" s="6">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="C4" s="7">
+        <v>38</v>
+      </c>
+      <c r="D4" s="8">
+        <v>45243</v>
+      </c>
+      <c r="E4" s="7">
+        <v>37</v>
+      </c>
+      <c r="F4" s="7">
+        <v>48</v>
+      </c>
+      <c r="G4" s="7">
+        <v>35</v>
+      </c>
+      <c r="H4" s="7">
+        <v>53</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>good</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="9">
         <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="L4" s="8">
+        <v>36</v>
+      </c>
+      <c r="L4" s="9">
         <f t="shared" si="2"/>
-        <v>16.5</v>
-      </c>
-      <c r="M4" s="9">
-        <v>3.1</v>
-      </c>
-      <c r="N4" s="10">
+        <v>50.5</v>
+      </c>
+      <c r="M4" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="N4" s="11">
         <f t="shared" si="3"/>
-        <v>19.899999999999999</v>
-      </c>
-      <c r="O4" s="11">
-        <v>1301.875</v>
-      </c>
-      <c r="P4" s="11">
-        <v>17.809629999999999</v>
-      </c>
-      <c r="Q4" t="s">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="O4" s="12">
+        <v>609.0222</v>
+      </c>
+      <c r="P4" s="12">
+        <v>13.89556</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>0.39444444444444443</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.3979166666666667</v>
-      </c>
-      <c r="C5" s="6">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7">
-        <v>45202</v>
-      </c>
-      <c r="E5" s="6">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6">
-        <v>14</v>
-      </c>
-      <c r="G5" s="6">
-        <v>7</v>
-      </c>
-      <c r="H5" s="6">
-        <v>10</v>
-      </c>
-      <c r="I5" s="6">
-        <v>95</v>
-      </c>
-      <c r="J5" s="8" t="str">
+      <c r="A5" s="6">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="C5" s="7">
+        <v>36</v>
+      </c>
+      <c r="D5" s="8">
+        <v>45243</v>
+      </c>
+      <c r="E5" s="7">
+        <v>44</v>
+      </c>
+      <c r="F5" s="7">
+        <v>56</v>
+      </c>
+      <c r="G5" s="7">
+        <v>40</v>
+      </c>
+      <c r="H5" s="7">
+        <v>58</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>good</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="9">
         <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-      <c r="L5" s="8">
+        <v>42</v>
+      </c>
+      <c r="L5" s="9">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="M5" s="9">
-        <v>3.2</v>
-      </c>
-      <c r="N5" s="10">
+        <v>57</v>
+      </c>
+      <c r="M5" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="N5" s="11">
         <f t="shared" si="3"/>
-        <v>15.8</v>
-      </c>
-      <c r="O5" s="11">
-        <v>1695.5450000000001</v>
-      </c>
-      <c r="P5" s="11">
-        <v>17.821149999999999</v>
-      </c>
-      <c r="Q5" t="s">
+        <v>34.4</v>
+      </c>
+      <c r="O5" s="12">
+        <v>510.5874</v>
+      </c>
+      <c r="P5" s="12">
+        <v>13.88382</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="D6" s="7"/>
-      <c r="N6" s="10"/>
+      <c r="A6" s="6">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="C6" s="7">
+        <v>32</v>
+      </c>
+      <c r="D6" s="8">
+        <v>45243</v>
+      </c>
+      <c r="E6" s="7">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7">
+        <v>25</v>
+      </c>
+      <c r="H6" s="7">
+        <v>27</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>good</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" si="1"/>
+        <v>23.5</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="M6" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="N6" s="11">
+        <f t="shared" si="3"/>
+        <v>30.5</v>
+      </c>
+      <c r="O6" s="12">
+        <v>738.32619999999997</v>
+      </c>
+      <c r="P6" s="12">
+        <v>13.872310000000001</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="D7" s="7"/>
-      <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="D8" s="7"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="7"/>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="7"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="7"/>
-      <c r="N11" s="10"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="7"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="7"/>
-      <c r="N13" s="10"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="D14" s="7"/>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="D15" s="7"/>
-      <c r="N15" s="10"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="D16" s="7"/>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="D17" s="7"/>
-      <c r="N17" s="10"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="R19" s="12"/>
+      <c r="A7" s="6">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="C7" s="7">
+        <v>32</v>
+      </c>
+      <c r="D7" s="8">
+        <v>45243</v>
+      </c>
+      <c r="E7" s="7">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7">
+        <v>31</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="9" t="str">
+        <f t="shared" ref="J7" si="4">IF(OR(ABS(G7-E7)&gt;5, ABS(F7-H7) &gt;5),"bad","good")</f>
+        <v>good</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" ref="K7" si="5">AVERAGE(E7,G7)</f>
+        <v>31</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" ref="L7" si="6">AVERAGE(F7,H7)</f>
+        <v>31</v>
+      </c>
+      <c r="M7" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="N7" s="11">
+        <f t="shared" ref="N7" si="7">C7-M7</f>
+        <v>30.6</v>
+      </c>
+      <c r="O7" s="12">
+        <v>905.05139999999994</v>
+      </c>
+      <c r="P7" s="12">
+        <v>13.867139999999999</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
